--- a/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/进口.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/进口.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,477 +528,286 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-12020918.6792683</v>
+        <v>50519076.1072701</v>
       </c>
       <c r="C2" t="n">
-        <v>-484950.821139215</v>
+        <v>18767468.1566515</v>
       </c>
       <c r="D2" t="n">
-        <v>-5430392.64423451</v>
+        <v>41033459.8248994</v>
       </c>
       <c r="E2" t="n">
-        <v>-26909947.0817066</v>
+        <v>118823964.076434</v>
       </c>
       <c r="F2" t="n">
-        <v>-411470.470902894</v>
+        <v>3433383.09733245</v>
       </c>
       <c r="G2" t="n">
-        <v>-5215048.95246449</v>
+        <v>24934988.194581</v>
       </c>
       <c r="H2" t="n">
-        <v>-694551.918646357</v>
+        <v>7549573.39666959</v>
       </c>
       <c r="I2" t="n">
-        <v>-81031306.2929818</v>
+        <v>425384810.116853</v>
       </c>
       <c r="J2" t="n">
-        <v>-5084280.68044682</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
+        <v>20842144.380179</v>
+      </c>
+      <c r="K2" t="n">
+        <v>185728.05277125</v>
+      </c>
       <c r="L2" t="n">
-        <v>-11301475.1638544</v>
+        <v>17226804.0418537</v>
       </c>
       <c r="M2" t="n">
-        <v>-1575754.25761656</v>
+        <v>20033294.5185019</v>
       </c>
       <c r="N2" t="n">
-        <v>-196815421.555288</v>
+        <v>1015151806.79542</v>
       </c>
       <c r="O2" t="n">
-        <v>-15957450.2259861</v>
+        <v>175809623.225264</v>
       </c>
       <c r="P2" t="n">
-        <v>-20526428.7236803</v>
+        <v>58454312.0839408</v>
       </c>
       <c r="Q2" t="n">
-        <v>-2045592.64</v>
+        <v>2146592.64751256</v>
       </c>
       <c r="R2" t="n">
-        <v>-2314497.41870442</v>
+        <v>5749922.27879434</v>
       </c>
       <c r="S2" t="n">
-        <v>-5811355.58365544</v>
+        <v>24256662.5959104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8877012</v>
+        <v>43132590.0604163</v>
       </c>
       <c r="C3" t="n">
-        <v>5574891.34125641</v>
+        <v>21061857.0121839</v>
       </c>
       <c r="D3" t="n">
-        <v>6811579.15381063</v>
+        <v>51186806.7959375</v>
       </c>
       <c r="E3" t="n">
-        <v>35881658</v>
+        <v>123067057.248493</v>
       </c>
       <c r="F3" t="n">
-        <v>797672.368391871</v>
+        <v>2284306.8103625</v>
       </c>
       <c r="G3" t="n">
-        <v>7718880.04190505</v>
+        <v>27953887.4811457</v>
       </c>
       <c r="H3" t="n">
-        <v>37980.8831604782</v>
+        <v>11526917.3760166</v>
       </c>
       <c r="I3" t="n">
-        <v>129817404.737641</v>
+        <v>458533409.234876</v>
       </c>
       <c r="J3" t="n">
-        <v>5208068</v>
+        <v>28816782.8352875</v>
       </c>
       <c r="K3" t="n">
-        <v>106173</v>
+        <v>221872.46899375</v>
       </c>
       <c r="L3" t="n">
-        <v>16304205.8005964</v>
+        <v>20543195.3338147</v>
       </c>
       <c r="M3" t="n">
-        <v>2919901.96060707</v>
+        <v>40051668.6026271</v>
       </c>
       <c r="N3" t="n">
-        <v>269424809</v>
+        <v>1220269786.53407</v>
       </c>
       <c r="O3" t="n">
-        <v>16689591.2309361</v>
+        <v>248969888.115306</v>
       </c>
       <c r="P3" t="n">
-        <v>22669240</v>
+        <v>97649841.50020251</v>
       </c>
       <c r="Q3" t="n">
-        <v>2760460.27234275</v>
+        <v>4433606.88178553</v>
       </c>
       <c r="R3" t="n">
-        <v>1979121.90355425</v>
+        <v>7026282.17338453</v>
       </c>
       <c r="S3" t="n">
-        <v>5270967.6750289</v>
+        <v>33809816.6032391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21097299.2770713</v>
+        <v>43361721.871628</v>
       </c>
       <c r="C4" t="n">
-        <v>9343405.8162474</v>
+        <v>36104898.4297382</v>
       </c>
       <c r="D4" t="n">
-        <v>17224665.9037567</v>
+        <v>52210005.9269428</v>
       </c>
       <c r="E4" t="n">
-        <v>75450833.5167982</v>
+        <v>120972937.213799</v>
       </c>
       <c r="F4" t="n">
-        <v>1326549.15294</v>
+        <v>6351282.89938551</v>
       </c>
       <c r="G4" t="n">
-        <v>10010259.03834</v>
+        <v>27094459.9346671</v>
       </c>
       <c r="H4" t="n">
-        <v>9764060.143128</v>
+        <v>29564846.6334995</v>
       </c>
       <c r="I4" t="n">
-        <v>284554049.843076</v>
+        <v>482373737.853546</v>
       </c>
       <c r="J4" t="n">
-        <v>13598239.7905724</v>
+        <v>20413936.7140301</v>
       </c>
       <c r="K4" t="n">
-        <v>217620.187429998</v>
+        <v>214612.92376088</v>
       </c>
       <c r="L4" t="n">
-        <v>20487496.5761803</v>
+        <v>29078123.7459046</v>
       </c>
       <c r="M4" t="n">
-        <v>9821139.85198205</v>
+        <v>88676404.7577094</v>
       </c>
       <c r="N4" t="n">
-        <v>593984570.821589</v>
+        <v>1251531020.59224</v>
       </c>
       <c r="O4" t="n">
-        <v>62754614.447129</v>
+        <v>156857220.615565</v>
       </c>
       <c r="P4" t="n">
-        <v>42365542.832117</v>
+        <v>95542486.58447319</v>
       </c>
       <c r="Q4" t="n">
-        <v>3398293.9782</v>
+        <v>9248112.003289239</v>
       </c>
       <c r="R4" t="n">
-        <v>2920304.05500357</v>
+        <v>8809895.42209905</v>
       </c>
       <c r="S4" t="n">
-        <v>9650196.4116171</v>
+        <v>44656337.0621985</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27295814.3828708</v>
+        <v>18067347.4195533</v>
       </c>
       <c r="C5" t="n">
-        <v>12615391.3168948</v>
+        <v>100763677.711866</v>
       </c>
       <c r="D5" t="n">
-        <v>23279609.1164565</v>
-      </c>
-      <c r="E5" t="n">
-        <v>91051715.2936406</v>
-      </c>
+        <v>60158244.7646583</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>2212627.128</v>
-      </c>
-      <c r="G5" t="n">
-        <v>24112559.0103356</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5233455.9531506</v>
-      </c>
+        <v>5834763.79313496</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>337102931.984634</v>
+        <v>546756814.895229</v>
       </c>
       <c r="J5" t="n">
-        <v>14501469.0861596</v>
+        <v>189414412.557223</v>
       </c>
       <c r="K5" t="n">
-        <v>179856.8690744</v>
+        <v>209381.7749</v>
       </c>
       <c r="L5" t="n">
-        <v>14270615.7874114</v>
-      </c>
-      <c r="M5" t="n">
-        <v>15028793.412632</v>
-      </c>
+        <v>30800860.4058739</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>740205546.81336</v>
+        <v>1492683828.39249</v>
       </c>
       <c r="O5" t="n">
-        <v>103388758.530215</v>
+        <v>232909803.562252</v>
       </c>
       <c r="P5" t="n">
-        <v>49051969.5568886</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1291731.66113684</v>
-      </c>
+        <v>88631174.35923889</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>3772993.11690274</v>
+        <v>10101555.3735417</v>
       </c>
       <c r="S5" t="n">
-        <v>15815254.6069562</v>
+        <v>58567441.1426047</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50519076.1072701</v>
+        <v>9273793.186134219</v>
       </c>
       <c r="C6" t="n">
-        <v>18767468.1566515</v>
+        <v>76920692.8173063</v>
       </c>
       <c r="D6" t="n">
-        <v>41033459.8248994</v>
-      </c>
-      <c r="E6" t="n">
-        <v>118823964.076434</v>
-      </c>
+        <v>64262037.6299852</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>3433383.09733245</v>
-      </c>
-      <c r="G6" t="n">
-        <v>24934988.194581</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7549573.39666959</v>
-      </c>
+        <v>5545047.863764</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>425384810.116853</v>
+        <v>627971498.9620579</v>
       </c>
       <c r="J6" t="n">
-        <v>20842144.380179</v>
+        <v>193614256.706043</v>
       </c>
       <c r="K6" t="n">
-        <v>185728.05277125</v>
+        <v>123218.4412</v>
       </c>
       <c r="L6" t="n">
-        <v>17226804.0418537</v>
-      </c>
-      <c r="M6" t="n">
-        <v>20033294.5185019</v>
-      </c>
+        <v>30055497.5779274</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>1015151806.79542</v>
+        <v>1626591529.63929</v>
       </c>
       <c r="O6" t="n">
-        <v>175809623.225264</v>
+        <v>294874700.189923</v>
       </c>
       <c r="P6" t="n">
-        <v>58454312.0839408</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2146592.64751256</v>
-      </c>
+        <v>89401274.2146717</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>5749922.27879434</v>
+        <v>12436721.0287978</v>
       </c>
       <c r="S6" t="n">
-        <v>24256662.5959104</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>43132590.0604163</v>
-      </c>
-      <c r="C7" t="n">
-        <v>21061857.0121839</v>
-      </c>
-      <c r="D7" t="n">
-        <v>51186806.7959375</v>
-      </c>
-      <c r="E7" t="n">
-        <v>123067057.248493</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2284306.8103625</v>
-      </c>
-      <c r="G7" t="n">
-        <v>27953887.4811457</v>
-      </c>
-      <c r="H7" t="n">
-        <v>11526917.3760166</v>
-      </c>
-      <c r="I7" t="n">
-        <v>458533409.234876</v>
-      </c>
-      <c r="J7" t="n">
-        <v>28816782.8352875</v>
-      </c>
-      <c r="K7" t="n">
-        <v>221872.46899375</v>
-      </c>
-      <c r="L7" t="n">
-        <v>20543195.3338147</v>
-      </c>
-      <c r="M7" t="n">
-        <v>40051668.6026271</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1220269786.53407</v>
-      </c>
-      <c r="O7" t="n">
-        <v>248969888.115306</v>
-      </c>
-      <c r="P7" t="n">
-        <v>97649841.50020251</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4433606.88178553</v>
-      </c>
-      <c r="R7" t="n">
-        <v>7026282.17338453</v>
-      </c>
-      <c r="S7" t="n">
-        <v>33809816.6032391</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>43361721.871628</v>
-      </c>
-      <c r="C8" t="n">
-        <v>36104898.4297382</v>
-      </c>
-      <c r="D8" t="n">
-        <v>52210005.9269428</v>
-      </c>
-      <c r="E8" t="n">
-        <v>120972937.213799</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6351282.89938551</v>
-      </c>
-      <c r="G8" t="n">
-        <v>27094459.9346671</v>
-      </c>
-      <c r="H8" t="n">
-        <v>29564846.6334995</v>
-      </c>
-      <c r="I8" t="n">
-        <v>482373737.853546</v>
-      </c>
-      <c r="J8" t="n">
-        <v>20413936.7140301</v>
-      </c>
-      <c r="K8" t="n">
-        <v>214612.92376088</v>
-      </c>
-      <c r="L8" t="n">
-        <v>29078123.7459046</v>
-      </c>
-      <c r="M8" t="n">
-        <v>88676404.7577094</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1251531020.59224</v>
-      </c>
-      <c r="O8" t="n">
-        <v>156857220.615565</v>
-      </c>
-      <c r="P8" t="n">
-        <v>95542486.58447319</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9248112.003289239</v>
-      </c>
-      <c r="R8" t="n">
-        <v>8809895.42209905</v>
-      </c>
-      <c r="S8" t="n">
-        <v>44656337.0621985</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>18067347.4195533</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100763677.711866</v>
-      </c>
-      <c r="D9" t="n">
-        <v>60158244.7646583</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>5834763.79313496</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>546756814.895229</v>
-      </c>
-      <c r="J9" t="n">
-        <v>189414412.557223</v>
-      </c>
-      <c r="K9" t="n">
-        <v>209381.7749</v>
-      </c>
-      <c r="L9" t="n">
-        <v>30800860.4058739</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
-        <v>1492683828.39249</v>
-      </c>
-      <c r="O9" t="n">
-        <v>232909803.562252</v>
-      </c>
-      <c r="P9" t="n">
-        <v>88631174.35923889</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
-        <v>10101555.3735417</v>
-      </c>
-      <c r="S9" t="n">
-        <v>58567441.1426047</v>
+        <v>81180639.93007471</v>
       </c>
     </row>
   </sheetData>
